--- a/biology/Médecine/Ernest_Guglielminetti/Ernest_Guglielminetti.xlsx
+++ b/biology/Médecine/Ernest_Guglielminetti/Ernest_Guglielminetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest Guglielminetti, né le 23 novembre 1862 à Brigue et mort le 20 février 1943 à Genève, est un médecin suisse.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir suivi ses études de médecine en Suisse et obtenu son doctorat en 1885, il exerce pendant plusieurs années à Java, Sumatra et Bornéo.
-En 1891, il met au point un appareil de respiration utilisable pour les alpinistes, les pompiers, les mineurs[1] et les plongeurs.
+En 1891, il met au point un appareil de respiration utilisable pour les alpinistes, les pompiers, les mineurs et les plongeurs.
 L'appareil Guglielminetti-Dräger sera utilisé en 1906 par les sauveteurs allemands lors de la catastrophe de Courrières, la plus importante catastrophe minière de tous les temps en Europe.
 En 1902, il reçoit le titre honorifique de « docteur Goudron » après avoir fait recouvrir de goudron l'avenue Saint-Martin à Monaco, pour éviter la poussière.
-Un monument à côté du pont Saltina à Brigue commémore Ernest Guglielminetti[2].
+Un monument à côté du pont Saltina à Brigue commémore Ernest Guglielminetti.
 			Catastrophe de Courrières - Sauveteur muni de l'appareil Guglielminetti-Dräger en usage dans les mines de Westphalie.
 			Catastrophe de Courrières - Appareil Guglielminetti-Dräger (vue dos) dont sont munis les sauveteurs allemands.
 </t>
